--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2_bil3.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2_bil3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/Bypakke Vestfoldbyene/Buss CSV_text/Vestfold/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4A2CA30A-2D54-4AE1-B520-9C4ABAE8AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB75DDB4-84FE-47F6-8ADB-6DFB24A6BD7F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4A2CA30A-2D54-4AE1-B520-9C4ABAE8AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B848B82-1B7C-4DF0-AC67-05B07B0973D9}"/>
   <bookViews>
-    <workbookView xWindow="43305" yWindow="4230" windowWidth="23235" windowHeight="11250" xr2:uid="{627D0B64-839D-423D-BBB8-B8DC4860C77B}"/>
+    <workbookView xWindow="44580" yWindow="1230" windowWidth="29040" windowHeight="14100" xr2:uid="{627D0B64-839D-423D-BBB8-B8DC4860C77B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,6 +443,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2_bil3.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2_bil3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4A2CA30A-2D54-4AE1-B520-9C4ABAE8AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B848B82-1B7C-4DF0-AC67-05B07B0973D9}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{4A2CA30A-2D54-4AE1-B520-9C4ABAE8AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9936F38-ED53-4A97-BA09-A0F6B44E78C9}"/>
   <bookViews>
-    <workbookView xWindow="44580" yWindow="1230" windowWidth="29040" windowHeight="14100" xr2:uid="{627D0B64-839D-423D-BBB8-B8DC4860C77B}"/>
+    <workbookView xWindow="61050" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{627D0B64-839D-423D-BBB8-B8DC4860C77B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>trafficData</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>E18</t>
+  </si>
+  <si>
+    <t>79403V1175511</t>
+  </si>
+  <si>
+    <t>Jarlsberg travbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tønsberg </t>
   </si>
 </sst>
 </file>
@@ -436,18 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146BD5BB-AF0D-407C-8F38-D742A4315617}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -476,7 +485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -502,6 +511,35 @@
         <v>100</v>
       </c>
       <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2025</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>10814</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2_bil3.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2_bil3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{4A2CA30A-2D54-4AE1-B520-9C4ABAE8AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9936F38-ED53-4A97-BA09-A0F6B44E78C9}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{4A2CA30A-2D54-4AE1-B520-9C4ABAE8AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3A36824-4123-4AA1-B20B-CEC15CEA847F}"/>
   <bookViews>
-    <workbookView xWindow="61050" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{627D0B64-839D-423D-BBB8-B8DC4860C77B}"/>
+    <workbookView xWindow="46425" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{627D0B64-839D-423D-BBB8-B8DC4860C77B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>trafficData</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tønsberg </t>
+  </si>
+  <si>
+    <t>trafficData1</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +519,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
